--- a/data/mults/ev_ebitda.xlsx
+++ b/data/mults/ev_ebitda.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1347,7 +1347,9 @@
       <c r="AG6" t="n">
         <v>11.827854259</v>
       </c>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI6" t="n">
         <v>8.857152834000001</v>
       </c>
@@ -1488,7 +1490,9 @@
       <c r="AG7" t="n">
         <v>10.351140798</v>
       </c>
-      <c r="AH7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI7" t="n">
         <v>8.032648935999999</v>
       </c>
@@ -1629,7 +1633,9 @@
       <c r="AG8" t="n">
         <v>11.550970485</v>
       </c>
-      <c r="AH8" t="inlineStr"/>
+      <c r="AH8" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI8" t="n">
         <v>8.597174127000001</v>
       </c>
@@ -1772,7 +1778,9 @@
       <c r="AG9" t="n">
         <v>9.692658246000001</v>
       </c>
-      <c r="AH9" t="inlineStr"/>
+      <c r="AH9" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI9" t="n">
         <v>7.55464221</v>
       </c>
@@ -1915,7 +1923,9 @@
       <c r="AG10" t="n">
         <v>10.265986006</v>
       </c>
-      <c r="AH10" t="inlineStr"/>
+      <c r="AH10" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI10" t="n">
         <v>7.384346582</v>
       </c>
@@ -2058,7 +2068,9 @@
       <c r="AG11" t="n">
         <v>10.04202985</v>
       </c>
-      <c r="AH11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI11" t="n">
         <v>7.592107248</v>
       </c>
@@ -2201,7 +2213,9 @@
       <c r="AG12" t="n">
         <v>9.549326305999999</v>
       </c>
-      <c r="AH12" t="inlineStr"/>
+      <c r="AH12" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI12" t="n">
         <v>6.43472487</v>
       </c>
@@ -2344,7 +2358,9 @@
       <c r="AG13" t="n">
         <v>10.355568469</v>
       </c>
-      <c r="AH13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI13" t="n">
         <v>6.86035145</v>
       </c>
@@ -2487,7 +2503,9 @@
       <c r="AG14" t="n">
         <v>10.445150931</v>
       </c>
-      <c r="AH14" t="inlineStr"/>
+      <c r="AH14" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI14" t="n">
         <v>6.792002657</v>
       </c>
@@ -2630,7 +2648,9 @@
       <c r="AG15" t="n">
         <v>11.04535343</v>
       </c>
-      <c r="AH15" t="inlineStr"/>
+      <c r="AH15" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI15" t="n">
         <v>7.000155801</v>
       </c>
@@ -2773,7 +2793,9 @@
       <c r="AG16" t="n">
         <v>13.052000591</v>
       </c>
-      <c r="AH16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI16" t="n">
         <v>7.236269817</v>
       </c>
@@ -2841,7 +2863,9 @@
       <c r="F17" t="n">
         <v>4.431482522</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H17" t="n">
         <v>15.808254191</v>
       </c>
@@ -2916,7 +2940,9 @@
       <c r="AG17" t="n">
         <v>13.802186186</v>
       </c>
-      <c r="AH17" t="inlineStr"/>
+      <c r="AH17" t="n">
+        <v>54.90227225</v>
+      </c>
       <c r="AI17" t="n">
         <v>7.287701606</v>
       </c>
@@ -2984,7 +3010,9 @@
       <c r="F18" t="n">
         <v>4.325776379</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H18" t="n">
         <v>16.031376038</v>
       </c>
@@ -3129,7 +3157,9 @@
       <c r="F19" t="n">
         <v>4.405055986</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H19" t="n">
         <v>15.442400841</v>
       </c>
@@ -3274,7 +3304,9 @@
       <c r="F20" t="n">
         <v>4.607659427</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H20" t="n">
         <v>15.840955486</v>
       </c>
@@ -3419,7 +3451,9 @@
       <c r="F21" t="n">
         <v>4.428966109</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H21" t="n">
         <v>15.311477851</v>
       </c>
@@ -3564,7 +3598,9 @@
       <c r="F22" t="n">
         <v>4.575691311</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H22" t="n">
         <v>15.282043055</v>
       </c>
@@ -3709,7 +3745,9 @@
       <c r="F23" t="n">
         <v>4.551237111</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H23" t="n">
         <v>15.933813548</v>
       </c>
@@ -3856,7 +3894,9 @@
       <c r="F24" t="n">
         <v>4.49825301</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H24" t="n">
         <v>15.618440729</v>
       </c>
@@ -4003,7 +4043,9 @@
       <c r="F25" t="n">
         <v>4.46157171</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H25" t="n">
         <v>15.290452997</v>
       </c>
@@ -4150,7 +4192,9 @@
       <c r="F26" t="n">
         <v>4.618486162</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H26" t="n">
         <v>14.951952837</v>
       </c>
@@ -4297,7 +4341,9 @@
       <c r="F27" t="n">
         <v>4.51048011</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>7.400898765</v>
+      </c>
       <c r="H27" t="n">
         <v>14.451561297</v>
       </c>
@@ -4821,7 +4867,9 @@
       <c r="AG30" t="n">
         <v>14.845391043</v>
       </c>
-      <c r="AH30" t="inlineStr"/>
+      <c r="AH30" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI30" t="n">
         <v>8.209576924</v>
       </c>
@@ -4968,7 +5016,9 @@
       <c r="AG31" t="n">
         <v>16.919542663</v>
       </c>
-      <c r="AH31" t="inlineStr"/>
+      <c r="AH31" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI31" t="n">
         <v>8.017153541000001</v>
       </c>
@@ -5117,7 +5167,9 @@
       <c r="AG32" t="n">
         <v>16.830010938</v>
       </c>
-      <c r="AH32" t="inlineStr"/>
+      <c r="AH32" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI32" t="n">
         <v>8.270510995</v>
       </c>
@@ -5266,7 +5318,9 @@
       <c r="AG33" t="n">
         <v>15.919219505</v>
       </c>
-      <c r="AH33" t="inlineStr"/>
+      <c r="AH33" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI33" t="n">
         <v>7.689483911</v>
       </c>
@@ -5415,7 +5469,9 @@
       <c r="AG34" t="n">
         <v>16.562794234</v>
       </c>
-      <c r="AH34" t="inlineStr"/>
+      <c r="AH34" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI34" t="n">
         <v>7.883653784</v>
       </c>
@@ -5564,7 +5620,9 @@
       <c r="AG35" t="n">
         <v>13.619512477</v>
       </c>
-      <c r="AH35" t="inlineStr"/>
+      <c r="AH35" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI35" t="n">
         <v>7.482985793</v>
       </c>
@@ -5713,7 +5771,9 @@
       <c r="AG36" t="n">
         <v>13.711043105</v>
       </c>
-      <c r="AH36" t="inlineStr"/>
+      <c r="AH36" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI36" t="n">
         <v>7.124453661</v>
       </c>
@@ -5862,7 +5922,9 @@
       <c r="AG37" t="n">
         <v>12.2236704</v>
       </c>
-      <c r="AH37" t="inlineStr"/>
+      <c r="AH37" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI37" t="n">
         <v>7.190696659</v>
       </c>
@@ -6011,7 +6073,9 @@
       <c r="AG38" t="n">
         <v>13.459333878</v>
       </c>
-      <c r="AH38" t="inlineStr"/>
+      <c r="AH38" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI38" t="n">
         <v>7.56799373</v>
       </c>
@@ -6160,7 +6224,9 @@
       <c r="AG39" t="n">
         <v>14.703578352</v>
       </c>
-      <c r="AH39" t="inlineStr"/>
+      <c r="AH39" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI39" t="n">
         <v>7.735041289</v>
       </c>
@@ -6309,7 +6375,9 @@
       <c r="AG40" t="n">
         <v>16.037869678</v>
       </c>
-      <c r="AH40" t="inlineStr"/>
+      <c r="AH40" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI40" t="n">
         <v>8.250633271</v>
       </c>
@@ -6460,7 +6528,9 @@
       <c r="AG41" t="n">
         <v>14.832380679</v>
       </c>
-      <c r="AH41" t="inlineStr"/>
+      <c r="AH41" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI41" t="n">
         <v>8.576568044</v>
       </c>
@@ -6611,7 +6681,9 @@
       <c r="AG42" t="n">
         <v>14.689855575</v>
       </c>
-      <c r="AH42" t="inlineStr"/>
+      <c r="AH42" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI42" t="n">
         <v>8.592823952</v>
       </c>
@@ -6762,7 +6834,9 @@
       <c r="AG43" t="n">
         <v>15.346512951</v>
       </c>
-      <c r="AH43" t="inlineStr"/>
+      <c r="AH43" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI43" t="n">
         <v>8.621260335000001</v>
       </c>
@@ -6913,7 +6987,9 @@
       <c r="AG44" t="n">
         <v>15.531073253</v>
       </c>
-      <c r="AH44" t="inlineStr"/>
+      <c r="AH44" t="n">
+        <v>9.503446718999999</v>
+      </c>
       <c r="AI44" t="n">
         <v>8.683820375</v>
       </c>
@@ -9432,7 +9508,7 @@
         <v>10.2885484672945</v>
       </c>
       <c r="C61" t="n">
-        <v>3.36167211813066</v>
+        <v>3.37395938702972</v>
       </c>
       <c r="D61" t="n">
         <v>5.05967399268581</v>
@@ -9507,7 +9583,7 @@
         <v>10.4674002838191</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.10125348879145</v>
+        <v>8.11872779131399</v>
       </c>
       <c r="AC61" t="n">
         <v>16.5976689522119</v>
@@ -10073,7 +10149,7 @@
         <v>42.5791680715679</v>
       </c>
       <c r="J65" t="n">
-        <v>20.6430359906244</v>
+        <v>20.4699583491653</v>
       </c>
       <c r="K65" t="n">
         <v>23.0918145535304</v>
@@ -10127,7 +10203,7 @@
         <v>15.0277570088453</v>
       </c>
       <c r="AB65" t="n">
-        <v>8.452546000288709</v>
+        <v>8.41171958860728</v>
       </c>
       <c r="AC65" t="n">
         <v>17.9314497087119</v>
@@ -10144,7 +10220,9 @@
       <c r="AG65" t="n">
         <v>19.7918324937393</v>
       </c>
-      <c r="AH65" t="inlineStr"/>
+      <c r="AH65" t="n">
+        <v>4.9844087483503</v>
+      </c>
       <c r="AI65" t="n">
         <v>8.39821579829904</v>
       </c>
